--- a/Data/BroadwayShows2016.xlsx
+++ b/Data/BroadwayShows2016.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1fc8757927827af/Documents/Springboard Data Science Intensive/GitHub Repository/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvcal\OneDrive\Documents\Springboard Data Science Intensive\GitHub Repository\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26265" windowHeight="11550" tabRatio="504" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26263" windowHeight="11554" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="BroadwayShows2016" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -528,6 +528,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -563,6 +580,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,21 +751,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.53515625" customWidth="1"/>
     <col min="2" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.69140625" customWidth="1"/>
+    <col min="7" max="7" width="17.69140625" customWidth="1"/>
+    <col min="8" max="8" width="20.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -755,7 +789,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -769,19 +803,19 @@
         <v>42372</v>
       </c>
       <c r="E2">
-        <f>WEEKNUM(B2,21)</f>
+        <f t="shared" ref="E2:E33" si="0">WEEKNUM(B2,21)</f>
         <v>11</v>
       </c>
       <c r="F2">
-        <f>WEEKNUM(C2,21)</f>
+        <f t="shared" ref="F2:F33" si="1">WEEKNUM(C2,21)</f>
         <v>15</v>
       </c>
       <c r="G2">
-        <f>WEEKNUM(D2,21)</f>
+        <f t="shared" ref="G2:G33" si="2">WEEKNUM(D2,21)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -795,19 +829,19 @@
         <v>42372</v>
       </c>
       <c r="E3">
-        <f>WEEKNUM(B3,21)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="F3">
-        <f>WEEKNUM(C3,21)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="G3">
-        <f>WEEKNUM(D3,21)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -821,19 +855,19 @@
         <v>42372</v>
       </c>
       <c r="E4">
-        <f>WEEKNUM(B4,21)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F4">
-        <f>WEEKNUM(C4,21)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="G4">
-        <f>WEEKNUM(D4,21)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -847,19 +881,19 @@
         <v>42372</v>
       </c>
       <c r="E5">
-        <f>WEEKNUM(B5,21)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F5">
-        <f>WEEKNUM(C5,21)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="G5">
-        <f>WEEKNUM(D5,21)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -873,19 +907,19 @@
         <v>42372</v>
       </c>
       <c r="E6">
-        <f>WEEKNUM(B6,21)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="F6">
-        <f>WEEKNUM(C6,21)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="G6">
-        <f>WEEKNUM(D6,21)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -899,19 +933,19 @@
         <v>42379</v>
       </c>
       <c r="E7">
-        <f>WEEKNUM(B7,21)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="F7">
-        <f>WEEKNUM(C7,21)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="G7">
-        <f>WEEKNUM(D7,21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -925,19 +959,19 @@
         <v>42386</v>
       </c>
       <c r="E8">
-        <f>WEEKNUM(B8,21)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="F8">
-        <f>WEEKNUM(C8,21)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="G8">
-        <f>WEEKNUM(D8,21)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -951,19 +985,19 @@
         <v>42393</v>
       </c>
       <c r="E9">
-        <f>WEEKNUM(B9,21)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="F9">
-        <f>WEEKNUM(C9,21)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="G9">
-        <f>WEEKNUM(D9,21)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -977,19 +1011,19 @@
         <v>42400</v>
       </c>
       <c r="E10">
-        <f>WEEKNUM(B10,21)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="F10">
-        <f>WEEKNUM(C10,21)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="G10">
-        <f>WEEKNUM(D10,21)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1003,19 +1037,19 @@
         <v>42400</v>
       </c>
       <c r="E11">
-        <f>WEEKNUM(B11,21)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="F11">
-        <f>WEEKNUM(C11,21)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="G11">
-        <f>WEEKNUM(D11,21)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1029,19 +1063,19 @@
         <v>42414</v>
       </c>
       <c r="E12">
-        <f>WEEKNUM(B12,21)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="F12">
-        <f>WEEKNUM(C12,21)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="G12">
-        <f>WEEKNUM(D12,21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1055,19 +1089,19 @@
         <v>42414</v>
       </c>
       <c r="E13">
-        <f>WEEKNUM(B13,21)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="F13">
-        <f>WEEKNUM(C13,21)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="G13">
-        <f>WEEKNUM(D13,21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1081,19 +1115,19 @@
         <v>42421</v>
       </c>
       <c r="E14">
-        <f>WEEKNUM(B14,21)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F14">
-        <f>WEEKNUM(C14,21)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G14">
-        <f>WEEKNUM(D14,21)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1107,19 +1141,19 @@
         <v>42435</v>
       </c>
       <c r="E15" s="2">
-        <f>WEEKNUM(B15,21)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="F15" s="2">
-        <f>WEEKNUM(C15,21)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G15" s="2">
-        <f>WEEKNUM(D15,21)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1133,19 +1167,19 @@
         <v>42442</v>
       </c>
       <c r="E16">
-        <f>WEEKNUM(B16,21)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="F16">
-        <f>WEEKNUM(C16,21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G16">
-        <f>WEEKNUM(D16,21)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1159,19 +1193,19 @@
         <v>42456</v>
       </c>
       <c r="E17">
-        <f>WEEKNUM(B17,21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F17">
-        <f>WEEKNUM(C17,21)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G17">
-        <f>WEEKNUM(D17,21)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1185,19 +1219,19 @@
         <v>42498</v>
       </c>
       <c r="E18">
-        <f>WEEKNUM(B18,21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F18">
-        <f>WEEKNUM(C18,21)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G18">
-        <f>WEEKNUM(D18,21)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1211,19 +1245,19 @@
         <v>42519</v>
       </c>
       <c r="E19">
-        <f>WEEKNUM(B19,21)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F19">
-        <f>WEEKNUM(C19,21)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G19">
-        <f>WEEKNUM(D19,21)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1237,19 +1271,19 @@
         <v>42526</v>
       </c>
       <c r="E20">
-        <f>WEEKNUM(B20,21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F20">
-        <f>WEEKNUM(C20,21)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G20">
-        <f>WEEKNUM(D20,21)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1263,19 +1297,19 @@
         <v>42532</v>
       </c>
       <c r="E21">
-        <f>WEEKNUM(B21,21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F21">
-        <f>WEEKNUM(C21,21)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G21">
-        <f>WEEKNUM(D21,21)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1289,19 +1323,19 @@
         <v>42540</v>
       </c>
       <c r="E22">
-        <f>WEEKNUM(B22,21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F22">
-        <f>WEEKNUM(C22,21)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G22">
-        <f>WEEKNUM(D22,21)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1315,19 +1349,19 @@
         <v>42540</v>
       </c>
       <c r="E23">
-        <f>WEEKNUM(B23,21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F23">
-        <f>WEEKNUM(C23,21)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="G23">
-        <f>WEEKNUM(D23,21)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1341,19 +1375,19 @@
         <v>42547</v>
       </c>
       <c r="E24">
-        <f>WEEKNUM(B24,21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F24">
-        <f>WEEKNUM(C24,21)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="G24">
-        <f>WEEKNUM(D24,21)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1367,19 +1401,19 @@
         <v>42547</v>
       </c>
       <c r="E25">
-        <f>WEEKNUM(B25,21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F25">
-        <f>WEEKNUM(C25,21)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G25">
-        <f>WEEKNUM(D25,21)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1393,19 +1427,19 @@
         <v>42547</v>
       </c>
       <c r="E26">
-        <f>WEEKNUM(B26,21)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F26">
-        <f>WEEKNUM(C26,21)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G26">
-        <f>WEEKNUM(D26,21)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1419,19 +1453,19 @@
         <v>42561</v>
       </c>
       <c r="E27">
-        <f>WEEKNUM(B27,21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F27">
-        <f>WEEKNUM(C27,21)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G27">
-        <f>WEEKNUM(D27,21)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1445,19 +1479,19 @@
         <v>42568</v>
       </c>
       <c r="E28">
-        <f>WEEKNUM(B28,21)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F28">
-        <f>WEEKNUM(C28,21)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G28">
-        <f>WEEKNUM(D28,21)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1471,19 +1505,19 @@
         <v>42575</v>
       </c>
       <c r="E29">
-        <f>WEEKNUM(B29,21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F29">
-        <f>WEEKNUM(C29,21)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G29">
-        <f>WEEKNUM(D29,21)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1497,19 +1531,19 @@
         <v>42582</v>
       </c>
       <c r="E30">
-        <f>WEEKNUM(B30,21)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="F30">
-        <f>WEEKNUM(C30,21)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="G30">
-        <f>WEEKNUM(D30,21)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1523,19 +1557,19 @@
         <v>42582</v>
       </c>
       <c r="E31">
-        <f>WEEKNUM(B31,21)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F31">
-        <f>WEEKNUM(C31,21)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="G31">
-        <f>WEEKNUM(D31,21)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1549,19 +1583,19 @@
         <v>42603</v>
       </c>
       <c r="E32">
-        <f>WEEKNUM(B32,21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F32">
-        <f>WEEKNUM(C32,21)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="G32">
-        <f>WEEKNUM(D32,21)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1575,19 +1609,19 @@
         <v>42617</v>
       </c>
       <c r="E33">
-        <f>WEEKNUM(B33,21)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F33">
-        <f>WEEKNUM(C33,21)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G33">
-        <f>WEEKNUM(D33,21)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1601,19 +1635,19 @@
         <v>42617</v>
       </c>
       <c r="E34">
-        <f>WEEKNUM(B34,21)</f>
+        <f t="shared" ref="E34:E65" si="3">WEEKNUM(B34,21)</f>
         <v>37</v>
       </c>
       <c r="F34">
-        <f>WEEKNUM(C34,21)</f>
+        <f t="shared" ref="F34:F65" si="4">WEEKNUM(C34,21)</f>
         <v>40</v>
       </c>
       <c r="G34">
-        <f>WEEKNUM(D34,21)</f>
+        <f t="shared" ref="G34:G65" si="5">WEEKNUM(D34,21)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1627,19 +1661,19 @@
         <v>42617</v>
       </c>
       <c r="E35">
-        <f>WEEKNUM(B35,21)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F35">
-        <f>WEEKNUM(C35,21)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="G35">
-        <f>WEEKNUM(D35,21)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1653,19 +1687,19 @@
         <v>42623</v>
       </c>
       <c r="E36">
-        <f>WEEKNUM(B36,21)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F36">
-        <f>WEEKNUM(C36,21)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="G36">
-        <f>WEEKNUM(D36,21)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1679,19 +1713,19 @@
         <v>42652</v>
       </c>
       <c r="E37">
-        <f>WEEKNUM(B37,21)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F37">
-        <f>WEEKNUM(C37,21)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G37">
-        <f>WEEKNUM(D37,21)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
@@ -1705,19 +1739,19 @@
         <v>42667</v>
       </c>
       <c r="E38">
-        <f>WEEKNUM(B38,21)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="F38">
-        <f>WEEKNUM(C38,21)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="G38">
-        <f>WEEKNUM(D38,21)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1731,19 +1765,19 @@
         <v>42672</v>
       </c>
       <c r="E39">
-        <f>WEEKNUM(B39,21)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="F39">
-        <f>WEEKNUM(C39,21)</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="G39">
-        <f>WEEKNUM(D39,21)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>63</v>
       </c>
@@ -1757,19 +1791,19 @@
         <v>42687</v>
       </c>
       <c r="E40">
-        <f>WEEKNUM(B40,21)</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="F40">
-        <f>WEEKNUM(C40,21)</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G40">
-        <f>WEEKNUM(D40,21)</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -1783,19 +1817,19 @@
         <v>42701</v>
       </c>
       <c r="E41">
-        <f>WEEKNUM(B41,21)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="F41">
-        <f>WEEKNUM(C41,21)</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="G41">
-        <f>WEEKNUM(D41,21)</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1809,19 +1843,19 @@
         <v>42708</v>
       </c>
       <c r="E42">
-        <f>WEEKNUM(B42,21)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="F42">
-        <f>WEEKNUM(C42,21)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="G42">
-        <f>WEEKNUM(D42,21)</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1835,19 +1869,19 @@
         <v>42715</v>
       </c>
       <c r="E43">
-        <f>WEEKNUM(B43,21)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F43">
-        <f>WEEKNUM(C43,21)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="G43">
-        <f>WEEKNUM(D43,21)</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1861,19 +1895,19 @@
         <v>42735</v>
       </c>
       <c r="E44">
-        <f>WEEKNUM(B44,21)</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="F44">
-        <f>WEEKNUM(C44,21)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="G44">
-        <f>WEEKNUM(D44,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -1887,19 +1921,19 @@
         <v>42736</v>
       </c>
       <c r="E45">
-        <f>WEEKNUM(B45,21)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F45">
-        <f>WEEKNUM(C45,21)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G45">
-        <f>WEEKNUM(D45,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -1913,19 +1947,19 @@
         <v>42736</v>
       </c>
       <c r="E46">
-        <f>WEEKNUM(B46,21)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F46">
-        <f>WEEKNUM(C46,21)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G46">
-        <f>WEEKNUM(D46,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1939,19 +1973,19 @@
         <v>42736</v>
       </c>
       <c r="E47">
-        <f>WEEKNUM(B47,21)</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="F47">
-        <f>WEEKNUM(C47,21)</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="G47">
-        <f>WEEKNUM(D47,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -1965,19 +1999,19 @@
         <v>42743</v>
       </c>
       <c r="E48">
-        <f>WEEKNUM(B48,21)</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="F48">
-        <f>WEEKNUM(C48,21)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G48">
-        <f>WEEKNUM(D48,21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1991,19 +2025,19 @@
         <v>42743</v>
       </c>
       <c r="E49">
-        <f>WEEKNUM(B49,21)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F49">
-        <f>WEEKNUM(C49,21)</f>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="G49">
-        <f>WEEKNUM(D49,21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2017,19 +2051,19 @@
         <v>42743</v>
       </c>
       <c r="E50">
-        <f>WEEKNUM(B50,21)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="F50">
-        <f>WEEKNUM(C50,21)</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="G50">
-        <f>WEEKNUM(D50,21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2043,19 +2077,19 @@
         <v>42743</v>
       </c>
       <c r="E51">
-        <f>WEEKNUM(B51,21)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="F51">
-        <f>WEEKNUM(C51,21)</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="G51">
-        <f>WEEKNUM(D51,21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -2069,19 +2103,19 @@
         <v>42750</v>
       </c>
       <c r="E52">
-        <f>WEEKNUM(B52,21)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="F52">
-        <f>WEEKNUM(C52,21)</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G52">
-        <f>WEEKNUM(D52,21)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -2095,19 +2129,19 @@
         <v>42750</v>
       </c>
       <c r="E53">
-        <f>WEEKNUM(B53,21)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F53">
-        <f>WEEKNUM(C53,21)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G53">
-        <f>WEEKNUM(D53,21)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2121,19 +2155,19 @@
         <v>42750</v>
       </c>
       <c r="E54">
-        <f>WEEKNUM(B54,21)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="F54">
-        <f>WEEKNUM(C54,21)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="G54">
-        <f>WEEKNUM(D54,21)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2147,19 +2181,19 @@
         <v>42757</v>
       </c>
       <c r="E55">
-        <f>WEEKNUM(B55,21)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F55">
-        <f>WEEKNUM(C55,21)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="G55">
-        <f>WEEKNUM(D55,21)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2173,19 +2207,19 @@
         <v>42764</v>
       </c>
       <c r="E56">
-        <f>WEEKNUM(B56,21)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F56">
-        <f>WEEKNUM(C56,21)</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="G56">
-        <f>WEEKNUM(D56,21)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2199,19 +2233,19 @@
         <v>42806</v>
       </c>
       <c r="E57">
-        <f>WEEKNUM(B57,21)</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="F57">
-        <f>WEEKNUM(C57,21)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G57">
-        <f>WEEKNUM(D57,21)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2225,19 +2259,19 @@
         <v>42813</v>
       </c>
       <c r="E58">
-        <f>WEEKNUM(B58,21)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="F58">
-        <f>WEEKNUM(C58,21)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G58">
-        <f>WEEKNUM(D58,21)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -2251,19 +2285,19 @@
         <v>42841</v>
       </c>
       <c r="E59">
-        <f>WEEKNUM(B59,21)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="F59">
-        <f>WEEKNUM(C59,21)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="G59">
-        <f>WEEKNUM(D59,21)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2274,19 +2308,19 @@
         <v>32151</v>
       </c>
       <c r="E60">
-        <f>WEEKNUM(B60,21)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F60">
-        <f>WEEKNUM(C60,21)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G60">
-        <f>WEEKNUM(D60,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -2297,19 +2331,19 @@
         <v>35383</v>
       </c>
       <c r="E61">
-        <f>WEEKNUM(B61,21)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="F61">
-        <f>WEEKNUM(C61,21)</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="G61">
-        <f>WEEKNUM(D61,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2320,19 +2354,19 @@
         <v>35747</v>
       </c>
       <c r="E62">
-        <f>WEEKNUM(B62,21)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="F62">
-        <f>WEEKNUM(C62,21)</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="G62">
-        <f>WEEKNUM(D62,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2343,19 +2377,19 @@
         <v>37924</v>
       </c>
       <c r="E63">
-        <f>WEEKNUM(B63,21)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="F63">
-        <f>WEEKNUM(C63,21)</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G63">
-        <f>WEEKNUM(D63,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2366,19 +2400,19 @@
         <v>40626</v>
       </c>
       <c r="E64">
-        <f>WEEKNUM(B64,21)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F64">
-        <f>WEEKNUM(C64,21)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G64">
-        <f>WEEKNUM(D64,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2389,19 +2423,19 @@
         <v>41368</v>
       </c>
       <c r="E65">
-        <f>WEEKNUM(B65,21)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F65">
-        <f>WEEKNUM(C65,21)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G65">
-        <f>WEEKNUM(D65,21)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2412,19 +2446,19 @@
         <v>41651</v>
       </c>
       <c r="E66">
-        <f>WEEKNUM(B66,21)</f>
+        <f t="shared" ref="E66:E76" si="6">WEEKNUM(B66,21)</f>
         <v>47</v>
       </c>
       <c r="F66">
-        <f>WEEKNUM(C66,21)</f>
+        <f t="shared" ref="F66:F76" si="7">WEEKNUM(C66,21)</f>
         <v>2</v>
       </c>
       <c r="G66">
-        <f>WEEKNUM(D66,21)</f>
+        <f t="shared" ref="G66:G76" si="8">WEEKNUM(D66,21)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2435,19 +2469,19 @@
         <v>41718</v>
       </c>
       <c r="E67">
-        <f>WEEKNUM(B67,21)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="F67">
-        <f>WEEKNUM(C67,21)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G67">
-        <f>WEEKNUM(D67,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2458,19 +2492,19 @@
         <v>42222</v>
       </c>
       <c r="E68">
-        <f>WEEKNUM(B68,21)</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="F68">
-        <f>WEEKNUM(C68,21)</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="G68">
-        <f>WEEKNUM(D68,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -2481,19 +2515,19 @@
         <v>42313</v>
       </c>
       <c r="E69">
-        <f>WEEKNUM(B69,21)</f>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="F69">
-        <f>WEEKNUM(C69,21)</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="G69">
-        <f>WEEKNUM(D69,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2504,19 +2538,19 @@
         <v>42344</v>
       </c>
       <c r="E70">
-        <f>WEEKNUM(B70,21)</f>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="F70">
-        <f>WEEKNUM(C70,21)</f>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="G70">
-        <f>WEEKNUM(D70,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -2527,19 +2561,19 @@
         <v>42484</v>
       </c>
       <c r="E71">
-        <f>WEEKNUM(B71,21)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F71">
-        <f>WEEKNUM(C71,21)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="G71">
-        <f>WEEKNUM(D71,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2550,19 +2584,19 @@
         <v>42582</v>
       </c>
       <c r="E72">
-        <f>WEEKNUM(B72,21)</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="F72">
-        <f>WEEKNUM(C72,21)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="G72">
-        <f>WEEKNUM(D72,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -2573,19 +2607,19 @@
         <v>42688</v>
       </c>
       <c r="E73">
-        <f>WEEKNUM(B73,21)</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="F73">
-        <f>WEEKNUM(C73,21)</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="G73">
-        <f>WEEKNUM(D73,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -2596,19 +2630,19 @@
         <v>42677</v>
       </c>
       <c r="E74">
-        <f>WEEKNUM(B74,21)</f>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="F74">
-        <f>WEEKNUM(C74,21)</f>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="G74">
-        <f>WEEKNUM(D74,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -2619,19 +2653,19 @@
         <v>42715</v>
       </c>
       <c r="E75">
-        <f>WEEKNUM(B75,21)</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="F75">
-        <f>WEEKNUM(C75,21)</f>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="G75">
-        <f>WEEKNUM(D75,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -2642,15 +2676,15 @@
         <v>42708</v>
       </c>
       <c r="E76">
-        <f>WEEKNUM(B76,21)</f>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="F76">
-        <f>WEEKNUM(C76,21)</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="G76">
-        <f>WEEKNUM(D76,21)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
@@ -2671,32 +2705,32 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="87.28515625" customWidth="1"/>
+    <col min="1" max="1" width="87.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -2710,19 +2744,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" customWidth="1"/>
-    <col min="6" max="6" width="68.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.53515625" customWidth="1"/>
+    <col min="2" max="4" width="21.53515625" customWidth="1"/>
+    <col min="5" max="5" width="45.3046875" customWidth="1"/>
+    <col min="6" max="6" width="68.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -2742,7 +2776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -2750,7 +2784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2771,7 +2805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2789,7 +2823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2807,7 +2841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2828,7 +2862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2846,7 +2880,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2864,7 +2898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2885,7 +2919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2906,7 +2940,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2924,7 +2958,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2945,7 +2979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2966,7 +3000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2984,7 +3018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3005,7 +3039,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3023,7 +3057,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3038,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3056,7 +3090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3071,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3086,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3104,7 +3138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3119,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3134,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3155,7 +3189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3173,7 +3207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3191,7 +3225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3209,7 +3243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3227,7 +3261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3242,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3260,7 +3294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3281,7 +3315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3299,7 +3333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3317,7 +3351,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3332,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3347,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3365,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3380,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3401,7 +3435,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3416,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3434,7 +3468,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>38</v>
       </c>
@@ -3452,7 +3486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>39</v>
       </c>
@@ -3470,7 +3504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>40</v>
       </c>
@@ -3491,7 +3525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>41</v>
       </c>
@@ -3506,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>42</v>
       </c>
@@ -3524,7 +3558,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>43</v>
       </c>
@@ -3542,7 +3576,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>44</v>
       </c>
@@ -3560,7 +3594,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>45</v>
       </c>
@@ -3581,7 +3615,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3599,7 +3633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>47</v>
       </c>
@@ -3620,7 +3654,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>48</v>
       </c>
@@ -3638,7 +3672,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>49</v>
       </c>
@@ -3656,7 +3690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>50</v>
       </c>
@@ -3674,7 +3708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>51</v>
       </c>
@@ -3689,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>52</v>
       </c>
@@ -3710,7 +3744,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>53</v>
       </c>
